--- a/backend/exports/students.xlsx
+++ b/backend/exports/students.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,67 +424,127 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Abin sakya</v>
+        <v>Abin</v>
       </c>
       <c r="B2" t="str">
-        <v>98458921346</v>
+        <v>9845892346</v>
       </c>
       <c r="C2" t="str">
-        <v>abinsakya877@gmail.com</v>
+        <v>abin877@gmail.com</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E2" t="str">
-        <v>class 19</v>
+        <v>class 9</v>
       </c>
       <c r="F2">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>bibek</v>
+        <v>Rakesh</v>
       </c>
       <c r="B3" t="str">
-        <v>1234567890</v>
+        <v>9845892349</v>
       </c>
       <c r="C3" t="str">
-        <v>bibek@gmail.com</v>
+        <v>rakesh877@gmail.com</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E3" t="str">
-        <v>5B</v>
+        <v>class 10</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
+        <v>shirsty</v>
+      </c>
+      <c r="B4" t="str">
+        <v>9845892341</v>
+      </c>
+      <c r="C4" t="str">
+        <v>shristy877@gmail.com</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4" t="str">
+        <v>class 11</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Rolex</v>
+      </c>
+      <c r="B5" t="str">
+        <v>9845892341</v>
+      </c>
+      <c r="C5" t="str">
+        <v>alex877@gmail.com</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5" t="str">
+        <v>class 12</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>bibek</v>
+      </c>
+      <c r="B6" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="C6" t="str">
+        <v>bibek@gmail.com</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6" t="str">
+        <v>5B</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
         <v>nitesh</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B7" t="str">
         <v>987654321</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C7" t="str">
         <v>nitesh@example.com</v>
       </c>
-      <c r="D4">
+      <c r="D7">
         <v>26</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E7" t="str">
         <v>12B</v>
       </c>
-      <c r="F4">
+      <c r="F7">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F7"/>
   </ignoredErrors>
 </worksheet>
 </file>